--- a/Discussion Log.xlsx
+++ b/Discussion Log.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\University work\Software Engineering\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="25600" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="130000"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -52,27 +52,39 @@
   </si>
   <si>
     <t>Planned how the Analysis section would be achieved as efficiently as possible. We did this by giving each team member one part of the use case diagram to do and then these parts would be merged together to create the finished use case diagram. We also decided to use Github over GoogleCode due to it enabling us to create a private respository for the coursework and because it allows us to add things to the respository  and see what is in the respository currently on our desktops. Then we made sure that each member of the group could add files to our repository and see any changes.</t>
+  </si>
+  <si>
+    <t>1/31/2014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discussed how we will represent the login function in the use case diagram, created a google document to merge our work together and helped each other with any issues we have had creating the UML diagrams/textual senarios.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,7 +134,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -177,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,7 +224,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,32 +401,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="9" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.83203125" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="9" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -443,7 +456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="117.75" customHeight="1">
       <c r="A2" s="4">
         <v>41663</v>
       </c>
@@ -454,7 +467,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D11" si="0">C2-B2</f>
+        <f t="shared" ref="D2" si="0">C2-B2</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -465,17 +478,28 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+    <row r="3" spans="1:9" ht="36">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
@@ -485,76 +509,81 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="D13" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="3">
         <f>SUM(D2:D12)</f>
-        <v>4.166666666666663E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+        <v>8.3333333333333287E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" firstPageNumber="2" orientation="landscape" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CDevelopment Log</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>